--- a/financial_models/opportunities/0116.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0116.HK_Stock_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{750AD701-ABC6-BF41-8DD7-5C8E218A0DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7B57646-011F-3345-AB49-73DCE9999FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4498,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>6.28</v>
+        <v>6.2800002098083496</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>2</v>
@@ -4539,7 +4539,7 @@
       </c>
       <c r="G5" s="250">
         <f>G3*G4/1000000</f>
-        <v>4254.2352799999999</v>
+        <v>4254.2354221296309</v>
       </c>
       <c r="H5" s="250"/>
       <c r="I5" s="38"/>
@@ -4715,7 +4715,7 @@
         <v>219</v>
       </c>
       <c r="G20" s="175">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="G24" s="181">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>0.17604625760143666</v>
+        <v>0.1760462517199122</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4802,7 +4802,7 @@
       </c>
       <c r="G26" s="181">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7579617834394913E-2</v>
+        <v>8.7579614908449926E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4832,20 +4832,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.8027080153579815</v>
+        <v>6.0023893509800699</v>
       </c>
       <c r="D29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>10.003982375526444</v>
+        <v>10.003982251633449</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>8.0031859004211547</v>
+        <v>8.0031858013067598</v>
       </c>
       <c r="G29" s="249">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>6.7947090364425442</v>
+        <v>6.7947089621256778</v>
       </c>
       <c r="H29" s="249"/>
     </row>
@@ -11703,17 +11703,17 @@
       </c>
       <c r="C87" s="162">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.22005782200179583</v>
+        <v>0.22005781464989027</v>
       </c>
       <c r="D87" s="215"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.1232323803210056</v>
+        <v>0.1232323762039385</v>
       </c>
       <c r="F87" s="215"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.17604625760143666</v>
+        <v>0.1760462517199122</v>
       </c>
       <c r="I87" s="215"/>
       <c r="K87" s="24"/>
@@ -11754,17 +11754,17 @@
       </c>
       <c r="C89" s="162">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7579617834394913E-2</v>
+        <v>8.7579614908449926E-2</v>
       </c>
       <c r="D89" s="215"/>
       <c r="E89" s="162">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>7.0063694267515936E-2</v>
+        <v>7.0063691926759944E-2</v>
       </c>
       <c r="F89" s="215"/>
       <c r="H89" s="162">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7579617834394913E-2</v>
+        <v>8.7579614908449926E-2</v>
       </c>
       <c r="I89" s="215"/>
       <c r="K89" s="24"/>
@@ -11822,14 +11822,14 @@
       </c>
       <c r="F93" s="145">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>20.964698404175465</v>
+        <v>20.964698019958135</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>217</v>
       </c>
       <c r="I93" s="145">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>37.684653523214749</v>
+        <v>37.684652580891239</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11839,7 +11839,7 @@
       </c>
       <c r="C94" s="185">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="146"/>
       <c r="E94" s="87" t="s">
@@ -11847,14 +11847,14 @@
       </c>
       <c r="F94" s="145">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>9.3531282090737236</v>
+        <v>9.3531281067742462</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>218</v>
       </c>
       <c r="I94" s="145">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>12.680140149060822</v>
+        <v>12.680139978492209</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11897,17 +11897,17 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>18545577.616824001</v>
+        <v>18545577.153082605</v>
       </c>
       <c r="D97" s="219"/>
       <c r="E97" s="123">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>15.230094414289111</v>
+        <v>15.23009413516913</v>
       </c>
       <c r="F97" s="219"/>
       <c r="H97" s="123">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>27.376536502620215</v>
+        <v>27.376535818056301</v>
       </c>
       <c r="I97" s="221"/>
       <c r="K97" s="24"/>
@@ -11957,27 +11957,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>18545577.616824001</v>
+        <v>18545577.153082605</v>
       </c>
       <c r="D100" s="109">
         <f>F100*(1-C94)</f>
-        <v>18.107818139686461</v>
+        <v>15.977486232459537</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97-H98+E99,0)</f>
-        <v>15.230094414289111</v>
+        <v>15.23009413516913</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>21.303315458454662</v>
+        <v>21.303314976612715</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>27.376536502620215</v>
+        <v>27.376535818056301</v>
       </c>
       <c r="I100" s="109">
         <f>F100*1.25</f>
-        <v>26.629144323068328</v>
+        <v>26.629143720765892</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12018,27 +12018,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>6240219.8598362748</v>
+        <v>6240219.7758951178</v>
       </c>
       <c r="D103" s="109">
         <f>F103*(1-C94)</f>
-        <v>6.8027080153579815</v>
+        <v>6.0023893509800699</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>6.7947090364425442</v>
+        <v>6.7947089621256778</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>8.0031859004211547</v>
+        <v>8.0031858013067598</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>9.2116627643997653</v>
+        <v>9.2116626404878428</v>
       </c>
       <c r="I103" s="109">
         <f>F103*1.25</f>
-        <v>10.003982375526444</v>
+        <v>10.003982251633449</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12079,27 +12079,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>7460087.2512076702</v>
+        <v>7460087.1314940155</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>12.455263077522222</v>
+        <v>10.989937791719804</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>11.012401725365827</v>
+        <v>11.012401548647404</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>14.653250679437908</v>
+        <v>14.653250388959737</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>18.29409963350999</v>
+        <v>18.294099229272071</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>18.316563349297386</v>
+        <v>18.316562986199671</v>
       </c>
       <c r="K106" s="24"/>
     </row>
